--- a/ProjectBlue1/Assets/Excel/Status.xlsx
+++ b/ProjectBlue1/Assets/Excel/Status.xlsx
@@ -46,6 +46,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,8 +88,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -372,7 +378,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -396,35 +402,36 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>200</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>